--- a/biology/Zoologie/Eobuthus/Eobuthus.xlsx
+++ b/biology/Zoologie/Eobuthus/Eobuthus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eobuthidae
 Eobuthus, unique représentant de la famille des Eobuthidae, est un genre fossile de scorpions.
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre ont été découvertes en Tchéquie et au Royaume-Uni. Elles datent du Carbonifère[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre ont été découvertes en Tchéquie et au Royaume-Uni. Elles datent du Carbonifère.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog 20.5[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog 20.5 :
 † Eobuthus cordai Kjellesvig-Waering, 1986
 † Eobuthus holti Pocock, 1911
 † Eobuthus rakovnicensis Frič, 1904</t>
@@ -576,7 +592,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Frič, 1904 : Palaeozoische Arachniden. A Frič, Prague, p. 1-85 (de).
 Kjellesvig-Waering, 1986 : « A restudy of the fossil Scorpionida of the world. » Palaeontographica Americana, vol. 55, p. 5-287.</t>
